--- a/Costings/Costings.xlsx
+++ b/Costings/Costings.xlsx
@@ -1,23 +1,148 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
     <sheet name="Лист2" sheetId="2" r:id="rId2"/>
     <sheet name="Лист3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211" fullCalcOnLoad="1"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="40">
+  <si>
+    <t>Смета на изготовление полетного контроллера</t>
+  </si>
+  <si>
+    <t>№ п/п</t>
+  </si>
+  <si>
+    <t>Наименование работ/материалов</t>
+  </si>
+  <si>
+    <t>ед. изм.</t>
+  </si>
+  <si>
+    <t>кол-во</t>
+  </si>
+  <si>
+    <t>стоимость</t>
+  </si>
+  <si>
+    <t>сумма</t>
+  </si>
+  <si>
+    <t>STM32F411CEU6</t>
+  </si>
+  <si>
+    <t>шт</t>
+  </si>
+  <si>
+    <t>TPS5430DDAR, DC-DC преобразователь</t>
+  </si>
+  <si>
+    <t>STM32F103C8T6</t>
+  </si>
+  <si>
+    <t>MAX7456</t>
+  </si>
+  <si>
+    <t>SMD резисторы</t>
+  </si>
+  <si>
+    <t>SMD конденсаторы</t>
+  </si>
+  <si>
+    <t>набор</t>
+  </si>
+  <si>
+    <t>Силовые провода</t>
+  </si>
+  <si>
+    <t>Сигнальные провода</t>
+  </si>
+  <si>
+    <t xml:space="preserve">набор </t>
+  </si>
+  <si>
+    <t>GPS модуль</t>
+  </si>
+  <si>
+    <t>SMD индуктивность</t>
+  </si>
+  <si>
+    <t>продавец</t>
+  </si>
+  <si>
+    <t>XC6206P332MR, LDO стабилизатор напряжения</t>
+  </si>
+  <si>
+    <t>B340A, Диод Шоттки</t>
+  </si>
+  <si>
+    <t>AMS1117-3.3, Линейный регулятор напряжения</t>
+  </si>
+  <si>
+    <t>Кварцевый резонатор 27 МГц</t>
+  </si>
+  <si>
+    <t>Кварцевый резонатор 8 МГц</t>
+  </si>
+  <si>
+    <t>Кварцевый резонатор 25 МГц</t>
+  </si>
+  <si>
+    <t>SMD светодиоды</t>
+  </si>
+  <si>
+    <t>Кварцевый резонатор 32 кГц</t>
+  </si>
+  <si>
+    <t>USB Type-C адаптер</t>
+  </si>
+  <si>
+    <t>HMC5883</t>
+  </si>
+  <si>
+    <t>BMP280</t>
+  </si>
+  <si>
+    <t>MPU6500</t>
+  </si>
+  <si>
+    <t>Изготовление печатной платы</t>
+  </si>
+  <si>
+    <t>pcbwave.com</t>
+  </si>
+  <si>
+    <t>ampero.ru</t>
+  </si>
+  <si>
+    <t>chipdip.ru</t>
+  </si>
+  <si>
+    <t>aliexpress.ru</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Конденсатор танталовый </t>
+  </si>
+  <si>
+    <t>Всего</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -25,16 +150,78 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF59200"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF3278CC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF7030A0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -42,25 +229,141 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="22">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  <cellStyles count="2">
+    <cellStyle name="Гиперссылка" xfId="1" builtinId="8"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Тема Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Стандартная">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -98,7 +401,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Стандартная">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -170,7 +473,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Стандартная">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -343,36 +646,729 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="D35" sqref="D35"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="48.109375" customWidth="1"/>
+    <col min="3" max="3" width="26.88671875" customWidth="1"/>
+    <col min="4" max="4" width="13.5546875" customWidth="1"/>
+    <col min="5" max="5" width="11.33203125" customWidth="1"/>
+    <col min="6" max="6" width="14.88671875" customWidth="1"/>
+    <col min="7" max="7" width="11.33203125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A1" s="12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="12"/>
+      <c r="C1" s="12"/>
+      <c r="D1" s="12"/>
+      <c r="E1" s="12"/>
+      <c r="F1" s="12"/>
+      <c r="G1" s="12"/>
+    </row>
+    <row r="2" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="9">
+        <v>1</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>33</v>
+      </c>
+      <c r="C3" s="13" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>8</v>
+      </c>
+      <c r="E3" s="10">
+        <v>1</v>
+      </c>
+      <c r="F3" s="10">
+        <v>1746</v>
+      </c>
+      <c r="G3" s="17">
+        <f>E3*F3</f>
+        <v>1746</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="5">
+        <v>2</v>
+      </c>
+      <c r="B4" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2</v>
+      </c>
+      <c r="F4" s="6">
+        <v>519</v>
+      </c>
+      <c r="G4" s="17">
+        <f t="shared" ref="G4:G26" si="0">E4*F4</f>
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+      <c r="B5" s="7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E5" s="6">
+        <v>4</v>
+      </c>
+      <c r="F5" s="6">
+        <v>99</v>
+      </c>
+      <c r="G5" s="17">
+        <f t="shared" si="0"/>
+        <v>396</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="9">
+        <v>4</v>
+      </c>
+      <c r="B6" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E6" s="6">
+        <v>2</v>
+      </c>
+      <c r="F6" s="6">
+        <v>280</v>
+      </c>
+      <c r="G6" s="17">
+        <f t="shared" si="0"/>
+        <v>560</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E7" s="6">
+        <v>3</v>
+      </c>
+      <c r="F7" s="6">
+        <v>243</v>
+      </c>
+      <c r="G7" s="17">
+        <f t="shared" si="0"/>
+        <v>729</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+      <c r="B8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E8" s="6">
+        <v>1</v>
+      </c>
+      <c r="F8" s="6">
+        <v>348</v>
+      </c>
+      <c r="G8" s="17">
+        <f t="shared" si="0"/>
+        <v>348</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A9" s="9">
+        <v>7</v>
+      </c>
+      <c r="B9" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="6">
+        <v>4</v>
+      </c>
+      <c r="F9" s="6">
+        <v>80</v>
+      </c>
+      <c r="G9" s="17">
+        <f t="shared" si="0"/>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A10" s="5">
+        <v>8</v>
+      </c>
+      <c r="B10" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E10" s="6">
+        <v>1</v>
+      </c>
+      <c r="F10" s="6">
+        <v>439</v>
+      </c>
+      <c r="G10" s="17">
+        <f t="shared" si="0"/>
+        <v>439</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A11" s="5">
+        <v>9</v>
+      </c>
+      <c r="B11" s="7" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E11" s="6">
+        <v>1</v>
+      </c>
+      <c r="F11" s="6">
+        <v>358</v>
+      </c>
+      <c r="G11" s="17">
+        <f t="shared" si="0"/>
+        <v>358</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="9">
+        <v>10</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="6">
+        <v>1</v>
+      </c>
+      <c r="F12" s="6">
+        <v>676</v>
+      </c>
+      <c r="G12" s="17">
+        <f t="shared" si="0"/>
+        <v>676</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A13" s="5">
+        <v>11</v>
+      </c>
+      <c r="B13" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="C13" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D13" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" s="6">
+        <v>1</v>
+      </c>
+      <c r="F13" s="6">
+        <v>349</v>
+      </c>
+      <c r="G13" s="17">
+        <f t="shared" si="0"/>
+        <v>349</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A14" s="5">
+        <v>12</v>
+      </c>
+      <c r="B14" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="C14" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" s="6">
+        <v>10</v>
+      </c>
+      <c r="F14" s="6">
+        <v>9</v>
+      </c>
+      <c r="G14" s="17">
+        <f t="shared" si="0"/>
+        <v>90</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A15" s="9">
+        <v>13</v>
+      </c>
+      <c r="B15" s="7" t="s">
+        <v>21</v>
+      </c>
+      <c r="C15" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D15" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E15" s="6">
+        <v>1</v>
+      </c>
+      <c r="F15" s="6">
+        <v>99</v>
+      </c>
+      <c r="G15" s="17">
+        <f t="shared" si="0"/>
+        <v>99</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A16" s="5">
+        <v>14</v>
+      </c>
+      <c r="B16" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D16" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E16" s="6">
+        <v>1</v>
+      </c>
+      <c r="F16" s="6">
+        <v>27</v>
+      </c>
+      <c r="G16" s="17">
+        <f t="shared" si="0"/>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A17" s="5">
+        <v>15</v>
+      </c>
+      <c r="B17" s="7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D17" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E17" s="6">
+        <v>1</v>
+      </c>
+      <c r="F17" s="6">
+        <v>76</v>
+      </c>
+      <c r="G17" s="17">
+        <f t="shared" si="0"/>
+        <v>76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="9">
+        <v>16</v>
+      </c>
+      <c r="B18" s="7" t="s">
+        <v>25</v>
+      </c>
+      <c r="C18" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E18" s="6">
+        <v>1</v>
+      </c>
+      <c r="F18" s="6">
+        <v>33</v>
+      </c>
+      <c r="G18" s="17">
+        <f t="shared" si="0"/>
+        <v>33</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A19" s="5">
+        <v>17</v>
+      </c>
+      <c r="B19" s="7" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D19" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E19" s="6">
+        <v>1</v>
+      </c>
+      <c r="F19" s="6">
+        <v>48</v>
+      </c>
+      <c r="G19" s="17">
+        <f t="shared" si="0"/>
+        <v>48</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A20" s="5">
+        <v>18</v>
+      </c>
+      <c r="B20" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="C20" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D20" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E20" s="6">
+        <v>3</v>
+      </c>
+      <c r="F20" s="6">
+        <v>13</v>
+      </c>
+      <c r="G20" s="17">
+        <f t="shared" si="0"/>
+        <v>39</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A21" s="9">
+        <v>19</v>
+      </c>
+      <c r="B21" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="C21" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D21" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E21" s="6">
+        <v>1</v>
+      </c>
+      <c r="F21" s="6">
+        <v>241</v>
+      </c>
+      <c r="G21" s="17">
+        <f t="shared" si="0"/>
+        <v>241</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A22" s="5">
+        <v>20</v>
+      </c>
+      <c r="B22" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="D22" s="6" t="s">
+        <v>14</v>
+      </c>
+      <c r="E22" s="6">
+        <v>1</v>
+      </c>
+      <c r="F22" s="6">
+        <v>236</v>
+      </c>
+      <c r="G22" s="17">
+        <f t="shared" si="0"/>
+        <v>236</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A23" s="5">
+        <v>21</v>
+      </c>
+      <c r="B23" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C23" s="15"/>
+      <c r="D23" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E23" s="6">
+        <v>2</v>
+      </c>
+      <c r="F23" s="6">
+        <v>115</v>
+      </c>
+      <c r="G23" s="17">
+        <f t="shared" si="0"/>
+        <v>230</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A24" s="9">
+        <v>22</v>
+      </c>
+      <c r="B24" s="8" t="s">
+        <v>31</v>
+      </c>
+      <c r="C24" s="16" t="s">
+        <v>37</v>
+      </c>
+      <c r="D24" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E24" s="6">
+        <v>3</v>
+      </c>
+      <c r="F24" s="6">
+        <v>48</v>
+      </c>
+      <c r="G24" s="17">
+        <f t="shared" si="0"/>
+        <v>144</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A25" s="5">
+        <v>23</v>
+      </c>
+      <c r="B25" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C25" s="15"/>
+      <c r="D25" s="6" t="s">
+        <v>8</v>
+      </c>
+      <c r="E25" s="6">
+        <v>3</v>
+      </c>
+      <c r="F25" s="6">
+        <v>120</v>
+      </c>
+      <c r="G25" s="17">
+        <f t="shared" si="0"/>
+        <v>360</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A26" s="5">
+        <v>24</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E26" s="15">
+        <v>5</v>
+      </c>
+      <c r="F26" s="15">
+        <v>41</v>
+      </c>
+      <c r="G26" s="17">
+        <f t="shared" si="0"/>
+        <v>205</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A27" s="9">
+        <v>25</v>
+      </c>
+      <c r="B27" s="4"/>
+      <c r="C27" s="15"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="1"/>
+    </row>
+    <row r="28" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A28" s="5">
+        <v>26</v>
+      </c>
+      <c r="B28" s="4"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="1"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A29" s="5">
+        <v>27</v>
+      </c>
+      <c r="B29" s="4"/>
+      <c r="C29" s="15"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="1"/>
+    </row>
+    <row r="30" spans="1:7" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B30" s="19"/>
+      <c r="C30" s="19"/>
+      <c r="D30" s="19"/>
+      <c r="E30" s="19"/>
+      <c r="F30" s="20"/>
+      <c r="G30" s="21">
+        <f>SUM(G3:G26)</f>
+        <v>8787</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="2">
+    <mergeCell ref="A1:G1"/>
+    <mergeCell ref="A30:F30"/>
+  </mergeCells>
+  <hyperlinks>
+    <hyperlink ref="C3" r:id="rId1"/>
+    <hyperlink ref="C7" r:id="rId2" display="aliexpress"/>
+    <hyperlink ref="C9" r:id="rId3" display="aliexpress"/>
+    <hyperlink ref="C8" r:id="rId4" display="aliexpress"/>
+    <hyperlink ref="C11" r:id="rId5" display="aliexpress"/>
+    <hyperlink ref="C12" r:id="rId6" display="aliexpress"/>
+    <hyperlink ref="C13" r:id="rId7"/>
+    <hyperlink ref="C14" r:id="rId8"/>
+    <hyperlink ref="C5" r:id="rId9"/>
+    <hyperlink ref="C6" r:id="rId10"/>
+    <hyperlink ref="C4" r:id="rId11"/>
+    <hyperlink ref="C20" r:id="rId12"/>
+    <hyperlink ref="C10" r:id="rId13"/>
+    <hyperlink ref="C17" r:id="rId14"/>
+    <hyperlink ref="C26" r:id="rId15"/>
+    <hyperlink ref="C19" r:id="rId16"/>
+    <hyperlink ref="C18" r:id="rId17"/>
+    <hyperlink ref="C16" r:id="rId18"/>
+    <hyperlink ref="C15" r:id="rId19"/>
+    <hyperlink ref="C21" r:id="rId20"/>
+    <hyperlink ref="C22" r:id="rId21"/>
+    <hyperlink ref="C24" r:id="rId22"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId23"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
